--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ccl4-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H2">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I2">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J2">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.063083</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N2">
-        <v>0.189249</v>
+        <v>0.487846</v>
       </c>
       <c r="O2">
-        <v>0.7267124392323111</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P2">
-        <v>0.726712439232311</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q2">
-        <v>4.067129000028999</v>
+        <v>0.01325932904933333</v>
       </c>
       <c r="R2">
-        <v>36.604161000261</v>
+        <v>0.079555974296</v>
       </c>
       <c r="S2">
-        <v>0.3367977759344709</v>
+        <v>9.797692398808974E-06</v>
       </c>
       <c r="T2">
-        <v>0.3367977759344708</v>
+        <v>6.533042384951597E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>64.472663</v>
+        <v>0.081538</v>
       </c>
       <c r="H3">
-        <v>193.417989</v>
+        <v>0.163076</v>
       </c>
       <c r="I3">
-        <v>0.4634539850319052</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J3">
-        <v>0.4634539850319052</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.023723</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N3">
-        <v>0.07116900000000001</v>
+        <v>2.630341</v>
       </c>
       <c r="O3">
-        <v>0.2732875607676889</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P3">
-        <v>0.2732875607676888</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q3">
-        <v>1.529484984349</v>
+        <v>0.07149091481933334</v>
       </c>
       <c r="R3">
-        <v>13.765364859141</v>
+        <v>0.428945488916</v>
       </c>
       <c r="S3">
-        <v>0.1266562090974344</v>
+        <v>5.282665435808759E-05</v>
       </c>
       <c r="T3">
-        <v>0.1266562090974344</v>
+        <v>3.522449551677368E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1347426666666667</v>
+        <v>0.081538</v>
       </c>
       <c r="H4">
-        <v>0.404228</v>
+        <v>0.163076</v>
       </c>
       <c r="I4">
-        <v>0.000968581456306409</v>
+        <v>7.575960821152165E-05</v>
       </c>
       <c r="J4">
-        <v>0.0009685814563064089</v>
+        <v>5.051605126665989E-05</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.063083</v>
+        <v>0.21801</v>
       </c>
       <c r="N4">
-        <v>0.189249</v>
+        <v>0.65403</v>
       </c>
       <c r="O4">
-        <v>0.7267124392323111</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="P4">
-        <v>0.726712439232311</v>
+        <v>0.1733807996729775</v>
       </c>
       <c r="Q4">
-        <v>0.008499971641333334</v>
+        <v>0.01777609938</v>
       </c>
       <c r="R4">
-        <v>0.076499744772</v>
+        <v>0.10665659628</v>
       </c>
       <c r="S4">
-        <v>0.0007038801927076147</v>
+        <v>1.313526145462509E-05</v>
       </c>
       <c r="T4">
-        <v>0.0007038801927076144</v>
+        <v>8.758513364934616E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,76 +711,76 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1347426666666667</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H5">
-        <v>0.404228</v>
+        <v>243.05191</v>
       </c>
       <c r="I5">
-        <v>0.000968581456306409</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J5">
-        <v>0.0009685814563064089</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.023723</v>
+        <v>0.1626153333333333</v>
       </c>
       <c r="N5">
-        <v>0.07116900000000001</v>
+        <v>0.487846</v>
       </c>
       <c r="O5">
-        <v>0.2732875607676889</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="P5">
-        <v>0.2732875607676888</v>
+        <v>0.1293260700537641</v>
       </c>
       <c r="Q5">
-        <v>0.003196500281333334</v>
+        <v>13.17465578731778</v>
       </c>
       <c r="R5">
-        <v>0.02876850253200001</v>
+        <v>118.57190208586</v>
       </c>
       <c r="S5">
-        <v>0.0002647012635987944</v>
+        <v>0.00973512493611569</v>
       </c>
       <c r="T5">
-        <v>0.0002647012635987943</v>
+        <v>0.009736984165502224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -782,108 +788,666 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>74.50600166666668</v>
+        <v>81.01730333333333</v>
       </c>
       <c r="H6">
-        <v>223.518005</v>
+        <v>243.05191</v>
       </c>
       <c r="I6">
-        <v>0.5355774335117884</v>
+        <v>0.07527581200038437</v>
       </c>
       <c r="J6">
-        <v>0.5355774335117883</v>
+        <v>0.07529018829269545</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.063083</v>
+        <v>0.8767803333333334</v>
       </c>
       <c r="N6">
-        <v>0.189249</v>
+        <v>2.630341</v>
       </c>
       <c r="O6">
-        <v>0.7267124392323111</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="P6">
-        <v>0.726712439232311</v>
+        <v>0.6972931302732585</v>
       </c>
       <c r="Q6">
-        <v>4.700062103138334</v>
+        <v>71.03437822236778</v>
       </c>
       <c r="R6">
-        <v>42.300558928245</v>
+        <v>639.30940400131</v>
       </c>
       <c r="S6">
-        <v>0.3892107831051327</v>
+        <v>0.05248930658360933</v>
       </c>
       <c r="T6">
-        <v>0.3892107831051326</v>
+        <v>0.05249933107347664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>81.01730333333333</v>
+      </c>
+      <c r="H7">
+        <v>243.05191</v>
+      </c>
+      <c r="I7">
+        <v>0.07527581200038437</v>
+      </c>
+      <c r="J7">
+        <v>0.07529018829269545</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.21801</v>
+      </c>
+      <c r="N7">
+        <v>0.65403</v>
+      </c>
+      <c r="O7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P7">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q7">
+        <v>17.6625822997</v>
+      </c>
+      <c r="R7">
+        <v>158.9632406973</v>
+      </c>
+      <c r="S7">
+        <v>0.01305138048065935</v>
+      </c>
+      <c r="T7">
+        <v>0.01305387305371658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.534989</v>
+      </c>
+      <c r="H8">
+        <v>1.069978</v>
+      </c>
+      <c r="I8">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J8">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.487846</v>
+      </c>
+      <c r="O8">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P8">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q8">
+        <v>0.08699741456466667</v>
+      </c>
+      <c r="R8">
+        <v>0.5219844873880001</v>
+      </c>
+      <c r="S8">
+        <v>6.428484459695376E-05</v>
+      </c>
+      <c r="T8">
+        <v>4.28647478780798E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.534989</v>
+      </c>
+      <c r="H9">
+        <v>1.069978</v>
+      </c>
+      <c r="I9">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J9">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.630341</v>
+      </c>
+      <c r="O9">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P9">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q9">
+        <v>0.4690678337496668</v>
+      </c>
+      <c r="R9">
+        <v>2.814407002498</v>
+      </c>
+      <c r="S9">
+        <v>0.0003466074589563016</v>
+      </c>
+      <c r="T9">
+        <v>0.0002311157697272834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>74.50600166666668</v>
-      </c>
-      <c r="H7">
-        <v>223.518005</v>
-      </c>
-      <c r="I7">
-        <v>0.5355774335117884</v>
-      </c>
-      <c r="J7">
-        <v>0.5355774335117883</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.023723</v>
-      </c>
-      <c r="N7">
-        <v>0.07116900000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.2732875607676889</v>
-      </c>
-      <c r="P7">
-        <v>0.2732875607676888</v>
-      </c>
-      <c r="Q7">
-        <v>1.767505877538334</v>
-      </c>
-      <c r="R7">
-        <v>15.907552897845</v>
-      </c>
-      <c r="S7">
-        <v>0.1463666504066558</v>
-      </c>
-      <c r="T7">
-        <v>0.1463666504066557</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.534989</v>
+      </c>
+      <c r="H10">
+        <v>1.069978</v>
+      </c>
+      <c r="I10">
+        <v>0.0004970756829634497</v>
+      </c>
+      <c r="J10">
+        <v>0.0003314470768365561</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.21801</v>
+      </c>
+      <c r="N10">
+        <v>0.65403</v>
+      </c>
+      <c r="O10">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P10">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q10">
+        <v>0.11663295189</v>
+      </c>
+      <c r="R10">
+        <v>0.69979771134</v>
+      </c>
+      <c r="S10">
+        <v>8.618337941019433E-05</v>
+      </c>
+      <c r="T10">
+        <v>5.746655923119289E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H11">
+        <v>2849.293091</v>
+      </c>
+      <c r="I11">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J11">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.487846</v>
+      </c>
+      <c r="O11">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P11">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q11">
+        <v>154.4462485857762</v>
+      </c>
+      <c r="R11">
+        <v>1390.016237271986</v>
+      </c>
+      <c r="S11">
+        <v>0.1141246913899844</v>
+      </c>
+      <c r="T11">
+        <v>0.1141464871020429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H12">
+        <v>2849.293091</v>
+      </c>
+      <c r="I12">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J12">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N12">
+        <v>2.630341</v>
+      </c>
+      <c r="O12">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P12">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q12">
+        <v>832.7347153637813</v>
+      </c>
+      <c r="R12">
+        <v>7494.612438274033</v>
+      </c>
+      <c r="S12">
+        <v>0.6153311800761364</v>
+      </c>
+      <c r="T12">
+        <v>0.6154486969873171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>949.7643636666668</v>
+      </c>
+      <c r="H13">
+        <v>2849.293091</v>
+      </c>
+      <c r="I13">
+        <v>0.8824569658889333</v>
+      </c>
+      <c r="J13">
+        <v>0.882625498900487</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.21801</v>
+      </c>
+      <c r="N13">
+        <v>0.65403</v>
+      </c>
+      <c r="O13">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P13">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q13">
+        <v>207.05812892297</v>
+      </c>
+      <c r="R13">
+        <v>1863.52316030673</v>
+      </c>
+      <c r="S13">
+        <v>0.1530010944228127</v>
+      </c>
+      <c r="T13">
+        <v>0.1530303148111271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H14">
+        <v>134.623594</v>
+      </c>
+      <c r="I14">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J14">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1626153333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.487846</v>
+      </c>
+      <c r="O14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="P14">
+        <v>0.1293260700537641</v>
+      </c>
+      <c r="Q14">
+        <v>7.297286870947111</v>
+      </c>
+      <c r="R14">
+        <v>65.675581838524</v>
+      </c>
+      <c r="S14">
+        <v>0.00539217119066834</v>
+      </c>
+      <c r="T14">
+        <v>0.005393200995955968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H15">
+        <v>134.623594</v>
+      </c>
+      <c r="I15">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J15">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8767803333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.630341</v>
+      </c>
+      <c r="O15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="P15">
+        <v>0.6972931302732585</v>
+      </c>
+      <c r="Q15">
+        <v>39.34510654061711</v>
+      </c>
+      <c r="R15">
+        <v>354.105958865554</v>
+      </c>
+      <c r="S15">
+        <v>0.02907320950019833</v>
+      </c>
+      <c r="T15">
+        <v>0.02907876194722068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>44.87453133333333</v>
+      </c>
+      <c r="H16">
+        <v>134.623594</v>
+      </c>
+      <c r="I16">
+        <v>0.04169438681950729</v>
+      </c>
+      <c r="J16">
+        <v>0.04170234967871425</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.21801</v>
+      </c>
+      <c r="N16">
+        <v>0.65403</v>
+      </c>
+      <c r="O16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="P16">
+        <v>0.1733807996729775</v>
+      </c>
+      <c r="Q16">
+        <v>9.78309657598</v>
+      </c>
+      <c r="R16">
+        <v>88.04786918382</v>
+      </c>
+      <c r="S16">
+        <v>0.007229006128640625</v>
+      </c>
+      <c r="T16">
+        <v>0.007230386735537611</v>
       </c>
     </row>
   </sheetData>
